--- a/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>23244</v>
+        <v>9.297600000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>260</v>
+        <v>0.104</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2600</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -885,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>8640</v>
+        <v>3.456</v>
       </c>
       <c r="F3" t="n">
-        <v>248</v>
+        <v>0.09920000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2480</v>
+        <v>0.9920000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -914,13 +914,13 @@
         <v>428</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>10032</v>
+        <v>4.0128</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>0.0192</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>480</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -943,13 +943,13 @@
         <v>428</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>4180</v>
+        <v>1.672</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>0.008</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -972,13 +972,13 @@
         <v>428</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>7524</v>
+        <v>3.0096</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>0.0144</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>360</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1001,13 +1001,13 @@
         <v>524</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>0.026</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>260</v>
+        <v>0.104</v>
       </c>
       <c r="G7" t="n">
         <v>253</v>
@@ -1016,7 +1016,7 @@
         <v>36.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2600</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1030,13 +1030,13 @@
         <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>0.0508</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>508</v>
+        <v>0.2032</v>
       </c>
       <c r="G8" t="n">
         <v>45</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5080</v>
+        <v>2.032</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1059,13 +1059,13 @@
         <v>151</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>0.0248</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>248</v>
+        <v>0.09920000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>75</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>2480</v>
+        <v>0.9920000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8360</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44308</v>
+        <v>110770</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/01_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>445</v>
+        <v>890</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>445</v>
+        <v>890</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>445</v>
+        <v>890</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
@@ -1088,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,6 +1206,35 @@
         <v>45</v>
       </c>
       <c r="I4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>253</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45</v>
+      </c>
+      <c r="I5" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1220,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,6 +1367,35 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
     </row>
